--- a/visuals_8_sec_ml_performance.xlsx
+++ b/visuals_8_sec_ml_performance.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488CDBF7-9271-4712-A5F9-1E89B70CE450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128DBE5-2874-164A-8915-DDBFBF2E12E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B77CDEA-10C9-4D7B-BB89-03B56E34538E}"/>
+    <workbookView xWindow="13200" yWindow="4480" windowWidth="20740" windowHeight="11160" xr2:uid="{4B77CDEA-10C9-4D7B-BB89-03B56E34538E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,9 +33,6 @@
     <t>5000 Samples</t>
   </si>
   <si>
-    <t>71348 Samples (around half of actual dataset or an actual training round)</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
@@ -54,7 +45,10 @@
     <t>Neural Network</t>
   </si>
   <si>
-    <t>F1 for 71348 Samples</t>
+    <t>71348 Samples ( half of actual dataset)</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
@@ -90,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,19 +405,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F07F49A-1F69-49C0-AE08-045EB79C9F26}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -428,77 +426,77 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.2870988845825098E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.8793287277221596E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.63288974761962</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.17735515258699999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>5.2870988845825098E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.8793287277221596E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.63288974761962</v>
-      </c>
-      <c r="E2">
-        <v>0.17735515258699999</v>
+      <c r="B3" s="1">
+        <v>0.44177889823913502</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.62133836746215798</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.7514786720275799</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0.44177889823913502</v>
-      </c>
-      <c r="C3">
-        <v>0.62133836746215798</v>
-      </c>
-      <c r="D3">
-        <v>1.7514786720275799</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="B4" s="1">
+        <v>2.9939956665039</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31.220497846603301</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3410.53151679039</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.0752688171999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>2.9939956665039</v>
-      </c>
-      <c r="C4">
-        <v>31.220497846603301</v>
-      </c>
-      <c r="D4">
-        <v>3410.53151679039</v>
-      </c>
-      <c r="E4">
-        <v>6.0752688171999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1.0053136348724301</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3.3390698432922301</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>36.3936607837677</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>7.0168293357000006E-2</v>
       </c>
     </row>
